--- a/output/piastow/2023/sheets/year_2023.xlsx
+++ b/output/piastow/2023/sheets/year_2023.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>50.91612903225808</v>
+        <v>51.03841373932597</v>
       </c>
       <c r="C2" t="n">
-        <v>44.21612903225806</v>
+        <v>44.70488745139989</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>50.93571428571429</v>
+        <v>51.00224762571376</v>
       </c>
       <c r="C3" t="n">
-        <v>44.16785714285714</v>
+        <v>44.82982353028314</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>51.61612903225807</v>
+        <v>51.72205073797901</v>
       </c>
       <c r="C4" t="n">
-        <v>45.43548387096774</v>
+        <v>45.78403339100826</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>52.66666666666666</v>
+        <v>52.68625626474432</v>
       </c>
       <c r="C5" t="n">
-        <v>43.96333333333334</v>
+        <v>45.73332486558353</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>52.1225806451613</v>
+        <v>52.14194272353406</v>
       </c>
       <c r="C6" t="n">
-        <v>45.84193548387097</v>
+        <v>46.07234715604265</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.73333333333334</v>
+        <v>51.82565356054923</v>
       </c>
       <c r="C7" t="n">
-        <v>45.95333333333333</v>
+        <v>46.16506537450233</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.23548387096774</v>
+        <v>51.25075264328741</v>
       </c>
       <c r="C8" t="n">
-        <v>45.2258064516129</v>
+        <v>45.48877435308011</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>51.82258064516128</v>
+        <v>51.85497850075519</v>
       </c>
       <c r="C9" t="n">
-        <v>45.95161290322581</v>
+        <v>46.05302275809413</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>48.1</v>
+        <v>52.69478152233898</v>
       </c>
       <c r="C10" t="n">
-        <v>42.79999999999999</v>
+        <v>46.71988468258053</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>53.50322580645162</v>
+        <v>53.52843773527869</v>
       </c>
       <c r="C11" t="n">
-        <v>45.95161290322581</v>
+        <v>46.33983981380126</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.41</v>
+        <v>53.45718866527318</v>
       </c>
       <c r="C12" t="n">
-        <v>46.59999999999999</v>
+        <v>47.01169480579381</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.4967741935484</v>
+        <v>52.60312113040256</v>
       </c>
       <c r="C13" t="n">
-        <v>44.79677419354839</v>
+        <v>45.84979435727756</v>
       </c>
     </row>
   </sheetData>
